--- a/Venezuela/polls.xlsx
+++ b/Venezuela/polls.xlsx
@@ -396,11 +396,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="79">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -812,65 +811,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" style="1" customWidth="1"/>
     <col min="2" max="3" width="19.5" style="1" customWidth="1"/>
-    <col min="5" max="8" width="10.83203125" style="3"/>
+    <col min="4" max="8" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>800</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
         <v>0.27600000000000002</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="1">
         <v>0.45200000000000001</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="1">
         <v>0.27200000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -879,66 +878,66 @@
       <c r="C3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>1000</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="1">
         <v>0.33</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="1">
         <v>0.48</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>1293</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="1">
         <v>0.21</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="1">
         <v>0.38900000000000001</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="1">
         <v>0.129</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="1">
         <v>0.17499999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>1300</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="1">
         <v>0.188</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="1">
         <v>0.39800000000000002</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="1">
         <v>0.155</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="1">
         <v>0.17499999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -947,102 +946,102 @@
       <c r="C6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>1200</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="1">
         <v>0.30299999999999999</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="1">
         <v>0.439</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="1">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="1">
         <v>0.20899999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>1000</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
         <v>0.17299999999999999</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="1">
         <v>0.45900000000000002</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="1">
         <v>0.13800000000000001</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="1">
         <v>0.17399999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>1200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="1">
         <v>0.44</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="1">
         <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="E9" s="3">
+      <c r="E9" s="1">
         <v>0.21</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="1">
         <v>0.26800000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="E10" s="3">
+      <c r="E10" s="1">
         <v>0.22500000000000001</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="1">
         <v>0.59599999999999997</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="1">
         <v>0.17899999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1051,66 +1050,66 @@
       <c r="C11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>1300</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="1">
         <v>0.436</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="1">
         <v>0.316</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="1">
         <v>0.248</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>1200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="1">
         <v>0.23830000000000001</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="1">
         <v>0.4783</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="1">
         <v>0.17</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>1000</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="1">
         <v>0.19</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="1">
         <v>0.42599999999999999</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="1">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="1">
         <v>0.21299999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1119,48 +1118,48 @@
       <c r="C14" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>1200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="1">
         <v>0.31</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="1">
         <v>0.42</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="1">
         <v>0.11</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="1">
         <v>0.16</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>1000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="1">
         <v>0.25</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="1">
         <v>0.45800000000000002</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="1">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="1">
         <v>0.16500000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1169,24 +1168,24 @@
       <c r="C16" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>1200</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="1">
         <v>0.33700000000000002</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="1">
         <v>0.46100000000000002</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="1">
         <v>7.8E-2</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="1">
         <v>0.125</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1195,21 +1194,21 @@
       <c r="C17" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>1200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="1">
         <v>0.155</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="1">
         <v>0.39200000000000002</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="1">
         <v>0.45700000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1218,45 +1217,45 @@
       <c r="C18" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>1200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="1">
         <v>0.52</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="1">
         <v>0.19800000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>1200</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="1">
         <v>0.18</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="1">
         <v>0.48</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="1">
         <v>0.21</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="1">
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1265,42 +1264,42 @@
       <c r="C20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="1">
         <v>0.21299999999999999</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="1">
         <v>0.40100000000000002</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="1">
         <v>0.1</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="1">
         <v>0.28599999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="E21" s="3">
+      <c r="E21" s="1">
         <v>0.19500000000000001</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="1">
         <v>0.17599999999999999</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="1">
         <v>0.28699999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1309,42 +1308,42 @@
       <c r="C22" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>1200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="1">
         <v>0.20799999999999999</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="1">
         <v>0.32600000000000001</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="1">
         <v>0.27600000000000002</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="1">
         <v>0.19</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="E23" s="3">
+      <c r="E23" s="1">
         <v>0.27</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="1">
         <v>0.61</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="1">
         <v>0.12</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1353,21 +1352,21 @@
       <c r="C24" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>2000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="1">
         <v>0.28100000000000003</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="1">
         <v>0.61099999999999999</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="1">
         <v>0.105</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1376,21 +1375,21 @@
       <c r="C25" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>8000</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="1">
         <v>0.45300000000000001</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="1">
         <v>0.376</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="1">
         <v>0.17100000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1399,66 +1398,66 @@
       <c r="C26" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>999</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="1">
         <v>0.192</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="1">
         <v>0.42199999999999999</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="1">
         <v>0.11799999999999999</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="1">
         <v>0.17499999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>1197</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="1">
         <v>0.2</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="1">
         <v>0.42</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="1">
         <v>0.23</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="E28" s="3">
+      <c r="E28" s="1">
         <v>0.16300000000000001</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="1">
         <v>0.42399999999999999</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="1">
         <v>0.13</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1467,21 +1466,21 @@
       <c r="C29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>1200</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="1">
         <v>0.193</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="1">
         <v>0.57899999999999996</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="1">
         <v>0.22800000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1490,96 +1489,96 @@
       <c r="C30" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>1200</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="1">
         <v>0.27</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="1">
         <v>0.53</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="1">
         <v>0.11</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="1">
         <v>0.09</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="2"/>
-      <c r="E31" s="3">
+      <c r="E31" s="1">
         <v>0.21</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="1">
         <v>0.44</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="1">
         <v>0.35</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="E32" s="3">
+      <c r="E32" s="1">
         <v>0.2</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="1">
         <v>0.53</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="E33" s="3">
+      <c r="E33" s="1">
         <v>0.2</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="1">
         <v>0.5</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="1">
         <v>0.2</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="1">
         <v>0.1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="E34" s="3">
+      <c r="E34" s="1">
         <v>0.26700000000000002</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="1">
         <v>0.376</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="1">
         <v>0.35699999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -1588,24 +1587,24 @@
       <c r="C35" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="1">
         <v>0.17100000000000001</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="1">
         <v>0.38300000000000001</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="1">
         <v>0.16700000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -1614,24 +1613,24 @@
       <c r="C36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>1000</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="1">
         <v>0.223</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="1">
         <v>0.60099999999999998</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="1">
         <v>0.13</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="1">
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -1640,18 +1639,18 @@
       <c r="C37" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="1">
         <v>0.35799999999999998</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="1">
         <v>0.57799999999999996</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="1">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -1660,114 +1659,114 @@
       <c r="C38" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>1200</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="1">
         <v>0.30299999999999999</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="1">
         <v>0.623</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="1">
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C39" s="2"/>
-      <c r="E39" s="3">
+      <c r="E39" s="1">
         <v>0.34</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="1">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C40" s="2"/>
-      <c r="E40" s="3">
+      <c r="E40" s="1">
         <v>0.28199999999999997</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="1">
         <v>0.63200000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C41" s="2"/>
-      <c r="E41" s="3">
+      <c r="E41" s="1">
         <v>0.2</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="1">
         <v>0.47</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C42" s="2"/>
-      <c r="E42" s="3">
+      <c r="E42" s="1">
         <v>0.39</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="1">
         <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C43" s="2"/>
-      <c r="E43" s="3">
+      <c r="E43" s="1">
         <v>0.221</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="1">
         <v>0.41799999999999998</v>
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C44" s="2"/>
-      <c r="E44" s="3">
+      <c r="E44" s="1">
         <v>0.19900000000000001</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="1">
         <v>0.437</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="1">
         <v>0.26500000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -1776,24 +1775,24 @@
       <c r="C45" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="1">
         <v>1200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="1">
         <v>0.25</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="1">
         <v>0.59</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="1">
         <v>0.11</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="1">
         <v>0.06</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -1802,24 +1801,24 @@
       <c r="C46" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="1">
         <v>1200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="1">
         <v>0.27800000000000002</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="1">
         <v>0.43</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46" s="1">
         <v>0.113</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H46" s="1">
         <v>0.17799999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -1828,24 +1827,24 @@
       <c r="C47" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="1">
         <v>1200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="1">
         <v>0.27600000000000002</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="1">
         <v>0.42699999999999999</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="1">
         <v>0.111</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="1">
         <v>0.187</v>
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" t="s">
+      <c r="A48" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -1854,21 +1853,21 @@
       <c r="C48" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="1">
         <v>1200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="1">
         <v>0.316</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="1">
         <v>0.60099999999999998</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="1">
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -1877,19 +1876,19 @@
       <c r="C49" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="1">
         <v>1200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="1">
         <v>0.63</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="1">
         <v>0.06</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="1">
         <v>0.03</v>
       </c>
     </row>
